--- a/Pipe flow/Pipe_Flow_Data.xlsx
+++ b/Pipe flow/Pipe_Flow_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex's MATLAB Files\MECH&amp;AE 157W\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex's MATLAB Files\MECH&amp;AE 157W\157W-Group-6\Pipe flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0CD11C-A26A-4612-8DD6-EC58C48A521F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F084666-9E82-41AC-8E14-611CAF660C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{231EC02F-A8E3-417D-A7AA-F6841F421278}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Temperature</t>
   </si>
@@ -44,16 +44,13 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>Density</t>
-  </si>
-  <si>
     <t>PipeNumber</t>
   </si>
   <si>
-    <t>Pressure1</t>
+    <t>PressureDrop</t>
   </si>
   <si>
-    <t>Pressure2</t>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -434,20 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E557DD-E10D-4040-B01D-17492AA70F8E}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -456,13 +453,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10925.290303</v>
       </c>
@@ -479,7 +473,7 @@
         <v>65142.396630000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11270.30005</v>
       </c>
@@ -496,7 +490,7 @@
         <v>53125.761888000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11310.302890000001</v>
       </c>
@@ -513,7 +507,7 @@
         <v>43557.942256000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11345.302157</v>
       </c>
@@ -530,7 +524,7 @@
         <v>34013.380707999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11440.306656999999</v>
       </c>
@@ -547,7 +541,7 @@
         <v>26569.518625000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11475.308934000001</v>
       </c>
@@ -564,7 +558,7 @@
         <v>19453.371940000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11510.312727</v>
       </c>
@@ -581,7 +575,7 @@
         <v>13546.033063000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11550.314441</v>
       </c>
@@ -598,7 +592,7 @@
         <v>8255.9025970000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11600.315022999999</v>
       </c>
@@ -615,7 +609,7 @@
         <v>4940.5796149999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11690.320825000001</v>
       </c>
@@ -632,7 +626,7 @@
         <v>3086.8678020000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11815.322908</v>
       </c>
@@ -649,7 +643,7 @@
         <v>71863.917650000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11945.325602000001</v>
       </c>
@@ -666,7 +660,7 @@
         <v>58420.762435999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12020.325792</v>
       </c>
@@ -683,7 +677,7 @@
         <v>47171.060140000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12060.325874</v>
       </c>
@@ -700,7 +694,7 @@
         <v>37611.215171999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12165.325934</v>
       </c>
